--- a/e.tec-Payment/請求書 模式データ 空ファイル.xlsx
+++ b/e.tec-Payment/請求書 模式データ 空ファイル.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="180" yWindow="4245" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="150" yWindow="2790" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,12 +15,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
-    <numFmt numFmtId="166" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="166" formatCode="m/d;@"/>
+    <numFmt numFmtId="167" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="168" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <name val="游ゴシック"/>
       <charset val="128"/>
@@ -41,12 +43,6 @@
       <family val="2"/>
       <sz val="6"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <family val="3"/>
-      <sz val="6"/>
     </font>
     <font>
       <name val="HG明朝B"/>
@@ -501,12 +497,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -529,19 +528,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -553,10 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -565,13 +558,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="10" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="56" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -580,157 +573,200 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="10" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,35 +1146,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="4.625" customWidth="1" style="70" min="1" max="1"/>
-    <col width="15.125" customWidth="1" style="70" min="2" max="2"/>
-    <col width="9.125" customWidth="1" style="70" min="3" max="3"/>
-    <col width="5.125" customWidth="1" style="70" min="4" max="4"/>
-    <col width="2.25" customWidth="1" style="70" min="5" max="5"/>
-    <col width="1.25" customWidth="1" style="70" min="6" max="6"/>
-    <col width="9.25" customWidth="1" style="70" min="7" max="9"/>
-    <col width="10.5" customWidth="1" style="70" min="10" max="11"/>
+    <col width="4.625" customWidth="1" style="69" min="1" max="1"/>
+    <col width="15.125" customWidth="1" style="69" min="2" max="2"/>
+    <col width="9.125" customWidth="1" style="69" min="3" max="3"/>
+    <col width="5.125" customWidth="1" style="69" min="4" max="4"/>
+    <col width="2.25" customWidth="1" style="69" min="5" max="5"/>
+    <col width="1.25" customWidth="1" style="69" min="6" max="6"/>
+    <col width="9.25" customWidth="1" style="69" min="7" max="9"/>
+    <col width="10.5" customWidth="1" style="69" min="10" max="11"/>
+    <col width="10" bestFit="1" customWidth="1" style="69" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" s="70">
-      <c r="A1" s="69" t="inlineStr">
+    <row r="1" ht="24" customHeight="1" s="69">
+      <c r="A1" s="68" t="inlineStr">
         <is>
           <t>請　求　書</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="70">
+    <row r="2" ht="14.25" customHeight="1" s="69">
       <c r="J2" s="1" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="70">
+    <row r="3" ht="18.75" customHeight="1" s="69">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>ユースエンジニアリング株式会社　御中</t>
@@ -1156,7 +1193,7 @@
       <c r="J3" s="5" t="n"/>
       <c r="K3" s="6" t="n"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="70">
+    <row r="4" ht="13.5" customHeight="1" s="69">
       <c r="H4" s="7" t="n"/>
       <c r="I4" s="8" t="inlineStr">
         <is>
@@ -1166,7 +1203,7 @@
       <c r="J4" s="8" t="n"/>
       <c r="K4" s="8" t="n"/>
     </row>
-    <row r="5" ht="17.25" customHeight="1" s="70">
+    <row r="5" ht="17.25" customHeight="1" s="69">
       <c r="A5" s="9" t="inlineStr">
         <is>
           <t>下記のとおりご請求いたします。</t>
@@ -1183,7 +1220,7 @@
       <c r="J5" s="8" t="n"/>
       <c r="K5" s="8" t="n"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="70">
+    <row r="6" ht="13.5" customHeight="1" s="69">
       <c r="H6" s="7" t="n"/>
       <c r="I6" s="8" t="inlineStr">
         <is>
@@ -1193,81 +1230,81 @@
       <c r="J6" s="8" t="n"/>
       <c r="K6" s="8" t="n"/>
     </row>
-    <row r="7" ht="21" customHeight="1" s="70">
-      <c r="A7" s="62" t="inlineStr">
+    <row r="7" ht="21" customHeight="1" s="69">
+      <c r="A7" s="64" t="inlineStr">
         <is>
           <t>注文番号</t>
         </is>
       </c>
-      <c r="B7" s="59" t="n"/>
-      <c r="C7" s="68" t="n"/>
-      <c r="D7" s="57" t="n"/>
-      <c r="E7" s="59" t="n"/>
-      <c r="F7" s="46" t="n"/>
+      <c r="B7" s="65" t="n"/>
+      <c r="C7" s="66" t="n"/>
+      <c r="D7" s="67" t="n"/>
+      <c r="E7" s="65" t="n"/>
+      <c r="F7" s="43" t="n"/>
       <c r="I7" s="11" t="n"/>
       <c r="J7" s="11" t="n"/>
       <c r="K7" s="11" t="n"/>
     </row>
-    <row r="8" ht="21" customHeight="1" s="70">
-      <c r="A8" s="71" t="inlineStr">
+    <row r="8" ht="21" customHeight="1" s="69">
+      <c r="A8" s="70" t="inlineStr">
         <is>
           <t>要求部署</t>
         </is>
       </c>
-      <c r="B8" s="59" t="n"/>
-      <c r="C8" s="63" t="n"/>
-      <c r="D8" s="57" t="n"/>
-      <c r="E8" s="59" t="n"/>
-      <c r="F8" s="46" t="n"/>
+      <c r="B8" s="65" t="n"/>
+      <c r="C8" s="71" t="n"/>
+      <c r="D8" s="67" t="n"/>
+      <c r="E8" s="65" t="n"/>
+      <c r="F8" s="43" t="n"/>
       <c r="I8" s="11" t="n"/>
       <c r="J8" s="11" t="n"/>
       <c r="K8" s="11" t="n"/>
     </row>
-    <row r="9" ht="21" customHeight="1" s="70">
-      <c r="A9" s="62" t="inlineStr">
+    <row r="9" ht="21" customHeight="1" s="69">
+      <c r="A9" s="64" t="inlineStr">
         <is>
           <t>JOB番号</t>
         </is>
       </c>
-      <c r="B9" s="59" t="n"/>
-      <c r="C9" s="68" t="inlineStr">
+      <c r="B9" s="65" t="n"/>
+      <c r="C9" s="66" t="inlineStr">
         <is>
           <t>2141-B601</t>
         </is>
       </c>
-      <c r="D9" s="57" t="n"/>
-      <c r="E9" s="59" t="n"/>
-      <c r="F9" s="46" t="n"/>
+      <c r="D9" s="67" t="n"/>
+      <c r="E9" s="65" t="n"/>
+      <c r="F9" s="43" t="n"/>
       <c r="I9" s="11" t="n"/>
       <c r="J9" s="11" t="n"/>
       <c r="K9" s="11" t="n"/>
     </row>
-    <row r="10" ht="21" customHeight="1" s="70">
-      <c r="A10" s="62" t="inlineStr">
+    <row r="10" ht="21" customHeight="1" s="69">
+      <c r="A10" s="64" t="inlineStr">
         <is>
           <t>JOB名称</t>
         </is>
       </c>
-      <c r="B10" s="59" t="n"/>
-      <c r="C10" s="63" t="n"/>
-      <c r="D10" s="57" t="n"/>
-      <c r="E10" s="59" t="n"/>
-      <c r="F10" s="46" t="n"/>
+      <c r="B10" s="65" t="n"/>
+      <c r="C10" s="71" t="n"/>
+      <c r="D10" s="67" t="n"/>
+      <c r="E10" s="65" t="n"/>
+      <c r="F10" s="43" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
       <c r="K10" s="7" t="n"/>
     </row>
-    <row r="11" ht="21" customHeight="1" s="70">
-      <c r="A11" s="62" t="inlineStr">
+    <row r="11" ht="21" customHeight="1" s="69">
+      <c r="A11" s="64" t="inlineStr">
         <is>
           <t>担当者様</t>
         </is>
       </c>
-      <c r="B11" s="59" t="n"/>
-      <c r="C11" s="63" t="n"/>
-      <c r="D11" s="57" t="n"/>
-      <c r="E11" s="59" t="n"/>
+      <c r="B11" s="65" t="n"/>
+      <c r="C11" s="71" t="n"/>
+      <c r="D11" s="67" t="n"/>
+      <c r="E11" s="65" t="n"/>
       <c r="I11" s="0" t="inlineStr">
         <is>
           <t>発行日</t>
@@ -1278,12 +1315,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="70">
+    <row r="12" ht="13.5" customHeight="1" s="69">
       <c r="A12" s="13" t="n"/>
       <c r="B12" s="13" t="n"/>
-      <c r="C12" s="46" t="n"/>
-      <c r="D12" s="46" t="n"/>
-      <c r="E12" s="46" t="n"/>
+      <c r="C12" s="43" t="n"/>
+      <c r="D12" s="43" t="n"/>
+      <c r="E12" s="43" t="n"/>
       <c r="I12" s="0" t="inlineStr">
         <is>
           <t>NO</t>
@@ -1295,25 +1332,25 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="70" thickBot="1">
+    <row r="13" ht="14.25" customHeight="1" s="69" thickBot="1">
       <c r="J13" s="14" t="n"/>
       <c r="K13" s="12" t="n"/>
     </row>
-    <row r="14" ht="30" customHeight="1" s="70" thickBot="1">
-      <c r="A14" s="64" t="inlineStr">
+    <row r="14" ht="30" customHeight="1" s="69" thickBot="1">
+      <c r="A14" s="76" t="inlineStr">
         <is>
           <t>税込合計金額</t>
         </is>
       </c>
-      <c r="B14" s="65" t="n"/>
-      <c r="C14" s="65" t="n"/>
-      <c r="D14" s="72" t="n">
-        <v>162849</v>
-      </c>
-      <c r="E14" s="65" t="n"/>
-      <c r="F14" s="65" t="n"/>
-      <c r="G14" s="65" t="n"/>
-      <c r="H14" s="67" t="n"/>
+      <c r="B14" s="77" t="n"/>
+      <c r="C14" s="77" t="n"/>
+      <c r="D14" s="80" t="n">
+        <v>162850</v>
+      </c>
+      <c r="E14" s="77" t="n"/>
+      <c r="F14" s="77" t="n"/>
+      <c r="G14" s="77" t="n"/>
+      <c r="H14" s="79" t="n"/>
       <c r="I14" s="15" t="n">
         <v>0.1</v>
       </c>
@@ -1322,394 +1359,413 @@
           <t>内税</t>
         </is>
       </c>
-      <c r="K14" s="73" t="n">
+      <c r="K14" s="81" t="n">
         <v>14804.5</v>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="70"/>
-    <row r="16" ht="13.5" customHeight="1" s="70">
-      <c r="A16" s="58" t="inlineStr">
+    <row r="15" ht="13.5" customHeight="1" s="69"/>
+    <row r="16" ht="13.5" customHeight="1" s="69">
+      <c r="A16" s="73" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="B16" s="56" t="inlineStr">
+      <c r="B16" s="72" t="inlineStr">
         <is>
           <t>品名/型式</t>
         </is>
       </c>
-      <c r="C16" s="57" t="n"/>
-      <c r="D16" s="57" t="n"/>
-      <c r="E16" s="57" t="n"/>
-      <c r="F16" s="18" t="n"/>
-      <c r="G16" s="58" t="inlineStr">
+      <c r="C16" s="67" t="n"/>
+      <c r="D16" s="67" t="n"/>
+      <c r="E16" s="67" t="n"/>
+      <c r="F16" s="17" t="n"/>
+      <c r="G16" s="73" t="inlineStr">
         <is>
           <t>数・単</t>
         </is>
       </c>
-      <c r="H16" s="58" t="inlineStr">
+      <c r="H16" s="73" t="inlineStr">
         <is>
           <t>単価</t>
         </is>
       </c>
-      <c r="I16" s="47" t="inlineStr">
+      <c r="I16" s="44" t="inlineStr">
         <is>
           <t>金額</t>
         </is>
       </c>
-      <c r="J16" s="58" t="inlineStr">
+      <c r="J16" s="73" t="inlineStr">
         <is>
           <t>備考</t>
         </is>
       </c>
-      <c r="K16" s="59" t="n"/>
+      <c r="K16" s="65" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="n"/>
-      <c r="B17" s="20" t="inlineStr">
+      <c r="A17" s="18" t="n"/>
+      <c r="B17" s="19" t="inlineStr">
         <is>
           <t>作業費</t>
         </is>
       </c>
-      <c r="C17" s="21" t="n"/>
-      <c r="D17" s="22" t="n"/>
-      <c r="E17" s="22" t="n"/>
-      <c r="F17" s="23" t="n"/>
-      <c r="G17" s="19" t="inlineStr">
+      <c r="C17" s="20" t="n"/>
+      <c r="D17" s="21" t="n"/>
+      <c r="E17" s="21" t="n"/>
+      <c r="F17" s="22" t="n"/>
+      <c r="G17" s="18" t="inlineStr">
         <is>
           <t>24H</t>
         </is>
       </c>
-      <c r="H17" s="74" t="inlineStr">
-        <is>
-          <t>¥2,750</t>
-        </is>
-      </c>
-      <c r="I17" s="74" t="inlineStr">
-        <is>
-          <t>¥66,000</t>
-        </is>
-      </c>
-      <c r="J17" s="24" t="n"/>
-      <c r="K17" s="75">
+      <c r="H17" s="82" t="n">
+        <v>2750</v>
+      </c>
+      <c r="I17" s="82" t="n">
+        <v>66000</v>
+      </c>
+      <c r="J17" s="45" t="n"/>
+      <c r="K17" s="83">
         <f>IF(ISNUMBER(I17),TODAY(),"")</f>
         <v/>
       </c>
+      <c r="M17" s="84" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="n"/>
-      <c r="B18" s="20" t="n"/>
-      <c r="C18" s="21" t="n"/>
-      <c r="D18" s="25" t="n"/>
-      <c r="E18" s="22" t="n"/>
-      <c r="F18" s="23" t="n"/>
-      <c r="G18" s="26" t="n"/>
-      <c r="H18" s="76" t="n"/>
-      <c r="I18" s="76" t="n"/>
-      <c r="J18" s="27" t="n"/>
-      <c r="K18" s="77" t="n"/>
+      <c r="A18" s="18" t="n"/>
+      <c r="B18" s="19" t="n"/>
+      <c r="C18" s="20" t="n"/>
+      <c r="D18" s="24" t="n"/>
+      <c r="E18" s="21" t="n"/>
+      <c r="F18" s="22" t="n"/>
+      <c r="G18" s="46" t="n"/>
+      <c r="H18" s="85" t="n"/>
+      <c r="I18" s="86" t="n"/>
+      <c r="J18" s="25" t="n"/>
+      <c r="K18" s="87" t="n"/>
+      <c r="M18" s="88" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="n"/>
-      <c r="B19" s="24" t="inlineStr">
+      <c r="A19" s="18" t="n"/>
+      <c r="B19" s="23" t="inlineStr">
         <is>
           <t>移動費</t>
         </is>
       </c>
-      <c r="C19" s="28" t="n"/>
-      <c r="D19" s="22" t="n"/>
-      <c r="E19" s="22" t="n"/>
-      <c r="F19" s="23" t="n"/>
-      <c r="G19" s="26" t="inlineStr">
+      <c r="C19" s="26" t="n"/>
+      <c r="D19" s="21" t="n"/>
+      <c r="E19" s="21" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="46" t="inlineStr">
         <is>
           <t>4H</t>
         </is>
       </c>
-      <c r="H19" s="78" t="inlineStr">
-        <is>
-          <t>¥1,250</t>
-        </is>
-      </c>
-      <c r="I19" s="76" t="inlineStr">
-        <is>
-          <t>¥5,000</t>
-        </is>
-      </c>
-      <c r="J19" s="24" t="n"/>
-      <c r="K19" s="75">
+      <c r="H19" s="89" t="n">
+        <v>1250</v>
+      </c>
+      <c r="I19" s="90" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J19" s="45" t="n"/>
+      <c r="K19" s="83">
         <f>IF(ISNUMBER(I19),TODAY(),"")</f>
         <v/>
       </c>
+      <c r="M19" s="88" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="n"/>
-      <c r="B20" s="24" t="n"/>
-      <c r="C20" s="21" t="n"/>
-      <c r="D20" s="22" t="n"/>
-      <c r="E20" s="22" t="n"/>
-      <c r="F20" s="23" t="n"/>
-      <c r="G20" s="26" t="n"/>
-      <c r="H20" s="76" t="n"/>
-      <c r="I20" s="76" t="n"/>
-      <c r="J20" s="24" t="n"/>
-      <c r="K20" s="77" t="n"/>
+      <c r="A20" s="18" t="n"/>
+      <c r="B20" s="23" t="n"/>
+      <c r="C20" s="20" t="n"/>
+      <c r="D20" s="21" t="n"/>
+      <c r="E20" s="21" t="n"/>
+      <c r="F20" s="22" t="n"/>
+      <c r="G20" s="46" t="n"/>
+      <c r="H20" s="85" t="n"/>
+      <c r="I20" s="86" t="n"/>
+      <c r="J20" s="45" t="n"/>
+      <c r="K20" s="87" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="29" t="n"/>
-      <c r="B21" s="20" t="inlineStr">
+      <c r="A21" s="27" t="n"/>
+      <c r="B21" s="19" t="inlineStr">
         <is>
           <t>出張割増</t>
         </is>
       </c>
-      <c r="C21" s="30" t="n"/>
-      <c r="D21" s="22" t="n"/>
-      <c r="E21" s="22" t="n"/>
-      <c r="F21" s="23" t="n"/>
-      <c r="G21" s="26" t="inlineStr">
+      <c r="C21" s="28" t="n"/>
+      <c r="D21" s="21" t="n"/>
+      <c r="E21" s="21" t="n"/>
+      <c r="F21" s="22" t="n"/>
+      <c r="G21" s="46" t="inlineStr">
         <is>
           <t>4日</t>
         </is>
       </c>
-      <c r="H21" s="78" t="inlineStr">
-        <is>
-          <t>¥2,000</t>
-        </is>
-      </c>
-      <c r="I21" s="78" t="inlineStr">
-        <is>
-          <t>¥10,000</t>
-        </is>
-      </c>
-      <c r="J21" s="24" t="n"/>
-      <c r="K21" s="75">
+      <c r="H21" s="89" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="89" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J21" s="45" t="n"/>
+      <c r="K21" s="83">
         <f>IF(ISNUMBER(I21),TODAY(),"")</f>
         <v/>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="29" t="n"/>
-      <c r="B22" s="20" t="n"/>
-      <c r="C22" s="31" t="n"/>
-      <c r="D22" s="22" t="n"/>
-      <c r="E22" s="22" t="n"/>
-      <c r="F22" s="23" t="n"/>
-      <c r="G22" s="26" t="n"/>
-      <c r="H22" s="78" t="n"/>
-      <c r="I22" s="78" t="n"/>
-      <c r="J22" s="24" t="n"/>
-      <c r="K22" s="77" t="n"/>
+      <c r="A22" s="27" t="n"/>
+      <c r="B22" s="19" t="n"/>
+      <c r="C22" s="29" t="n"/>
+      <c r="D22" s="21" t="n"/>
+      <c r="E22" s="21" t="n"/>
+      <c r="F22" s="22" t="n"/>
+      <c r="G22" s="46" t="n"/>
+      <c r="H22" s="91" t="n"/>
+      <c r="I22" s="92" t="n"/>
+      <c r="J22" s="45" t="n"/>
+      <c r="K22" s="87" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="29" t="n"/>
-      <c r="B23" s="20" t="inlineStr">
+      <c r="A23" s="27" t="n"/>
+      <c r="B23" s="19" t="inlineStr">
         <is>
           <t>宿泊料金</t>
         </is>
       </c>
-      <c r="C23" s="31" t="n"/>
-      <c r="D23" s="22" t="n"/>
-      <c r="E23" s="22" t="n"/>
-      <c r="F23" s="23" t="n"/>
-      <c r="G23" s="26" t="n">
-        <v/>
-      </c>
-      <c r="H23" s="78" t="n">
-        <v/>
-      </c>
-      <c r="I23" s="78" t="inlineStr">
-        <is>
-          <t>¥40,565</t>
-        </is>
-      </c>
-      <c r="J23" s="32" t="n"/>
-      <c r="K23" s="75">
+      <c r="C23" s="29" t="n"/>
+      <c r="D23" s="21" t="n"/>
+      <c r="E23" s="21" t="n"/>
+      <c r="F23" s="22" t="n"/>
+      <c r="G23" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="91" t="inlineStr">
+        <is>
+          <t>式</t>
+        </is>
+      </c>
+      <c r="I23" s="89" t="n">
+        <v>40565</v>
+      </c>
+      <c r="J23" s="45" t="inlineStr">
+        <is>
+          <t>内税</t>
+        </is>
+      </c>
+      <c r="K23" s="83">
         <f>IF(ISNUMBER(I23),TODAY(),"")</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="29" t="n"/>
-      <c r="B24" s="20" t="n"/>
-      <c r="C24" s="30" t="n"/>
-      <c r="D24" s="22" t="n"/>
-      <c r="E24" s="22" t="n"/>
-      <c r="F24" s="23" t="n"/>
-      <c r="G24" s="26" t="n"/>
-      <c r="H24" s="78" t="n"/>
-      <c r="I24" s="78" t="n"/>
-      <c r="J24" s="32" t="n"/>
-      <c r="K24" s="77" t="n"/>
+      <c r="A24" s="27" t="n"/>
+      <c r="B24" s="19" t="n"/>
+      <c r="C24" s="28" t="n"/>
+      <c r="D24" s="21" t="n"/>
+      <c r="E24" s="21" t="n"/>
+      <c r="F24" s="22" t="n"/>
+      <c r="G24" s="46" t="n"/>
+      <c r="H24" s="91" t="n"/>
+      <c r="I24" s="92" t="n"/>
+      <c r="J24" s="45" t="n"/>
+      <c r="K24" s="87" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="29" t="n"/>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>旅費(JR・タクシー・フェリー)</t>
-        </is>
-      </c>
-      <c r="C25" s="31" t="n"/>
-      <c r="D25" s="22" t="n"/>
-      <c r="E25" s="22" t="n"/>
-      <c r="F25" s="23" t="n"/>
-      <c r="G25" s="26" t="inlineStr">
-        <is>
-          <t>実費</t>
-        </is>
-      </c>
-      <c r="H25" s="78" t="n">
-        <v/>
-      </c>
-      <c r="I25" s="78" t="n">
-        <v/>
-      </c>
-      <c r="J25" s="32" t="n"/>
-      <c r="K25" s="75">
+      <c r="A25" s="27" t="n"/>
+      <c r="B25" s="19" t="inlineStr">
+        <is>
+          <t>JR料金</t>
+        </is>
+      </c>
+      <c r="C25" s="29" t="n"/>
+      <c r="D25" s="21" t="n"/>
+      <c r="E25" s="21" t="n"/>
+      <c r="F25" s="22" t="n"/>
+      <c r="G25" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="91" t="inlineStr">
+        <is>
+          <t>式</t>
+        </is>
+      </c>
+      <c r="I25" s="92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J25" s="45" t="inlineStr">
+        <is>
+          <t>内税</t>
+        </is>
+      </c>
+      <c r="K25" s="83">
         <f>IF(ISNUMBER(I25),TODAY(),"")</f>
         <v/>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="29" t="n"/>
-      <c r="B26" s="20" t="n"/>
-      <c r="C26" s="79" t="n"/>
-      <c r="D26" s="22" t="n"/>
-      <c r="E26" s="22" t="n"/>
-      <c r="F26" s="23" t="n"/>
-      <c r="G26" s="26" t="n"/>
-      <c r="H26" s="78" t="n"/>
-      <c r="I26" s="78" t="n"/>
-      <c r="J26" s="32" t="n"/>
-      <c r="K26" s="77" t="n"/>
+      <c r="A26" s="27" t="n"/>
+      <c r="B26" s="19" t="n"/>
+      <c r="C26" s="93" t="n"/>
+      <c r="D26" s="21" t="n"/>
+      <c r="E26" s="21" t="n"/>
+      <c r="F26" s="22" t="n"/>
+      <c r="G26" s="46" t="n"/>
+      <c r="H26" s="91" t="n"/>
+      <c r="I26" s="94" t="n"/>
+      <c r="J26" s="45" t="n"/>
+      <c r="K26" s="87" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="29" t="n"/>
-      <c r="B27" s="20" t="inlineStr">
-        <is>
-          <t>旅費(JR・タクシー・フェリー)</t>
-        </is>
-      </c>
-      <c r="C27" s="79" t="n"/>
-      <c r="D27" s="22" t="n"/>
-      <c r="E27" s="22" t="n"/>
-      <c r="F27" s="23" t="n"/>
-      <c r="G27" s="26" t="inlineStr">
-        <is>
-          <t>実費</t>
-        </is>
-      </c>
-      <c r="H27" s="78" t="n"/>
-      <c r="I27" s="78" t="n"/>
-      <c r="J27" s="32" t="n"/>
-      <c r="K27" s="75">
+      <c r="A27" s="27" t="n"/>
+      <c r="B27" s="19" t="inlineStr">
+        <is>
+          <t>タクシー代</t>
+        </is>
+      </c>
+      <c r="C27" s="93" t="n"/>
+      <c r="D27" s="21" t="n"/>
+      <c r="E27" s="21" t="n"/>
+      <c r="F27" s="22" t="n"/>
+      <c r="G27" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="91" t="inlineStr">
+        <is>
+          <t>式</t>
+        </is>
+      </c>
+      <c r="I27" s="95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="45" t="inlineStr">
+        <is>
+          <t>内税</t>
+        </is>
+      </c>
+      <c r="K27" s="83">
         <f>IF(ISNUMBER(I27),TODAY(),"")</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="29" t="n"/>
-      <c r="B28" s="20" t="n"/>
-      <c r="C28" s="79" t="n"/>
-      <c r="D28" s="22" t="n"/>
-      <c r="E28" s="22" t="n"/>
-      <c r="F28" s="23" t="n"/>
-      <c r="G28" s="26" t="n"/>
-      <c r="H28" s="78" t="n"/>
-      <c r="I28" s="78" t="n"/>
-      <c r="J28" s="24" t="n"/>
-      <c r="K28" s="77" t="n"/>
+      <c r="A28" s="27" t="n"/>
+      <c r="B28" s="19" t="n"/>
+      <c r="C28" s="93" t="n"/>
+      <c r="D28" s="21" t="n"/>
+      <c r="E28" s="21" t="n"/>
+      <c r="F28" s="22" t="n"/>
+      <c r="G28" s="46" t="n"/>
+      <c r="H28" s="91" t="n"/>
+      <c r="I28" s="92" t="n"/>
+      <c r="J28" s="45" t="n"/>
+      <c r="K28" s="87" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="29" t="n"/>
-      <c r="B29" s="20" t="n"/>
-      <c r="C29" s="79" t="n"/>
-      <c r="D29" s="22" t="n"/>
-      <c r="E29" s="22" t="n"/>
-      <c r="F29" s="23" t="n"/>
-      <c r="G29" s="26" t="n"/>
-      <c r="H29" s="78" t="n"/>
-      <c r="I29" s="78" t="n"/>
-      <c r="J29" s="24" t="n"/>
-      <c r="K29" s="75">
+      <c r="A29" s="27" t="n"/>
+      <c r="B29" s="19" t="inlineStr">
+        <is>
+          <t>フェリー代</t>
+        </is>
+      </c>
+      <c r="C29" s="93" t="n"/>
+      <c r="D29" s="21" t="n"/>
+      <c r="E29" s="21" t="n"/>
+      <c r="F29" s="22" t="n"/>
+      <c r="G29" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="91" t="inlineStr">
+        <is>
+          <t>式</t>
+        </is>
+      </c>
+      <c r="I29" s="92" t="n">
+        <v>100</v>
+      </c>
+      <c r="J29" s="45" t="inlineStr">
+        <is>
+          <t>内税</t>
+        </is>
+      </c>
+      <c r="K29" s="83">
         <f>IF(ISNUMBER(I29),TODAY(),"")</f>
         <v/>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="29" t="n"/>
-      <c r="B30" s="20" t="n"/>
-      <c r="C30" s="31" t="n"/>
-      <c r="D30" s="22" t="n"/>
-      <c r="E30" s="22" t="n"/>
-      <c r="F30" s="23" t="n"/>
-      <c r="G30" s="26" t="n"/>
-      <c r="H30" s="78" t="n"/>
-      <c r="I30" s="78" t="n"/>
-      <c r="J30" s="24" t="n"/>
-      <c r="K30" s="77" t="n"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1" s="70">
-      <c r="A31" s="60" t="inlineStr">
+      <c r="A30" s="27" t="n"/>
+      <c r="B30" s="19" t="n"/>
+      <c r="C30" s="29" t="n"/>
+      <c r="D30" s="21" t="n"/>
+      <c r="E30" s="21" t="n"/>
+      <c r="F30" s="22" t="n"/>
+      <c r="G30" s="46" t="n"/>
+      <c r="H30" s="91" t="n"/>
+      <c r="I30" s="92" t="n"/>
+      <c r="J30" s="45" t="n"/>
+      <c r="K30" s="87" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="69">
+      <c r="A31" s="74" t="inlineStr">
         <is>
           <t>税抜</t>
         </is>
       </c>
-      <c r="B31" s="57" t="n"/>
-      <c r="C31" s="57" t="n"/>
-      <c r="D31" s="57" t="n"/>
-      <c r="E31" s="57" t="n"/>
-      <c r="F31" s="57" t="n"/>
-      <c r="G31" s="57" t="n"/>
-      <c r="H31" s="59" t="n"/>
-      <c r="I31" s="80" t="n"/>
-      <c r="J31" s="57" t="n"/>
-      <c r="K31" s="59" t="n"/>
+      <c r="B31" s="67" t="n"/>
+      <c r="C31" s="67" t="n"/>
+      <c r="D31" s="67" t="n"/>
+      <c r="E31" s="67" t="n"/>
+      <c r="F31" s="67" t="n"/>
+      <c r="G31" s="67" t="n"/>
+      <c r="H31" s="65" t="n"/>
+      <c r="I31" s="96">
+        <f>SUM(I17,I19,I21,I23,I25,I27)</f>
+        <v/>
+      </c>
+      <c r="J31" s="67" t="n"/>
+      <c r="K31" s="65" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="33" t="inlineStr">
+      <c r="A32" s="30" t="inlineStr">
         <is>
           <t>〈備考〉</t>
         </is>
       </c>
-      <c r="B32" s="34" t="n"/>
-      <c r="C32" s="35" t="n"/>
-      <c r="D32" s="35" t="n"/>
-      <c r="E32" s="35" t="n"/>
-      <c r="F32" s="35" t="n"/>
-      <c r="G32" s="35" t="n"/>
-      <c r="H32" s="36" t="n"/>
-      <c r="I32" s="37" t="n"/>
-      <c r="J32" s="38" t="n"/>
-      <c r="K32" s="36" t="n"/>
+      <c r="B32" s="31" t="n"/>
+      <c r="C32" s="32" t="n"/>
+      <c r="D32" s="32" t="n"/>
+      <c r="E32" s="32" t="n"/>
+      <c r="F32" s="32" t="n"/>
+      <c r="G32" s="32" t="n"/>
+      <c r="H32" s="33" t="n"/>
+      <c r="I32" s="34" t="n"/>
+      <c r="J32" s="35" t="n"/>
+      <c r="K32" s="33" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="39" t="n"/>
-      <c r="H33" s="40" t="n"/>
-      <c r="I33" s="41" t="n"/>
-      <c r="J33" s="39" t="n"/>
-      <c r="K33" s="40" t="n"/>
+      <c r="A33" s="36" t="n"/>
+      <c r="H33" s="37" t="n"/>
+      <c r="I33" s="38" t="n"/>
+      <c r="J33" s="36" t="n"/>
+      <c r="K33" s="37" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="42" t="n"/>
-      <c r="B34" s="43" t="n"/>
-      <c r="C34" s="43" t="n"/>
-      <c r="D34" s="43" t="n"/>
-      <c r="E34" s="43" t="n"/>
-      <c r="F34" s="43" t="n"/>
-      <c r="G34" s="43" t="n"/>
-      <c r="H34" s="44" t="n"/>
-      <c r="I34" s="45" t="n"/>
-      <c r="J34" s="42" t="n"/>
-      <c r="K34" s="44" t="n"/>
+      <c r="A34" s="39" t="n"/>
+      <c r="B34" s="40" t="n"/>
+      <c r="C34" s="40" t="n"/>
+      <c r="D34" s="40" t="n"/>
+      <c r="E34" s="40" t="n"/>
+      <c r="F34" s="40" t="n"/>
+      <c r="G34" s="40" t="n"/>
+      <c r="H34" s="41" t="n"/>
+      <c r="I34" s="42" t="n"/>
+      <c r="J34" s="39" t="n"/>
+      <c r="K34" s="41" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="A31:H31"/>
@@ -1720,6 +1776,13 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
